--- a/Résultats.xlsx
+++ b/Résultats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babs2\Documents\GitHub\Naval-strike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A582BF-2F4D-4C78-B6C0-401111A7EC0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF313D14-C692-40F1-B028-361526AA3FE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37440" yWindow="1155" windowWidth="16920" windowHeight="12525" xr2:uid="{CA09CD46-4819-4640-888F-2E45EE8A1E1E}"/>
+    <workbookView xWindow="39180" yWindow="1110" windowWidth="16920" windowHeight="12525" xr2:uid="{CA09CD46-4819-4640-888F-2E45EE8A1E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>BFA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>1.1 lancer l'application</t>
   </si>
@@ -99,6 +96,15 @@
   </si>
   <si>
     <t>3.0 Prise en charge de touche aléatoire dans le menu</t>
+  </si>
+  <si>
+    <t>Testeur</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>resultat</t>
   </si>
 </sst>
 </file>
@@ -122,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -156,24 +162,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A3FCF5-37A7-499C-B386-406526EA7D7E}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,123 +585,192 @@
     <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1">
-        <v>25.03</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Résultats.xlsx
+++ b/Résultats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babs2\Documents\GitHub\Naval-strike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF313D14-C692-40F1-B028-361526AA3FE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDBEFDF-343A-4965-AC9F-32BABCD25115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39180" yWindow="1110" windowWidth="16920" windowHeight="12525" xr2:uid="{CA09CD46-4819-4640-888F-2E45EE8A1E1E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA09CD46-4819-4640-888F-2E45EE8A1E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,71 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>1.1 lancer l'application</t>
-  </si>
-  <si>
-    <t>1.2 affichage du menu</t>
-  </si>
-  <si>
-    <t>1.3 affichage du score</t>
-  </si>
-  <si>
-    <t>1.4 affichage des regles</t>
-  </si>
-  <si>
-    <t>1.5 affichage des options</t>
-  </si>
-  <si>
-    <t>1.6 changer mode de fenetre fullscreen</t>
-  </si>
-  <si>
-    <t>1.7 changer couleur de l'invite de cmd</t>
-  </si>
-  <si>
-    <t>1.8 quitter</t>
-  </si>
-  <si>
-    <t>1.9 lancer une partie</t>
-  </si>
-  <si>
-    <t>2.0 quitter vers le menu en jeu</t>
-  </si>
-  <si>
-    <t>2.1 prise en charge des lettre plus grande que J</t>
-  </si>
-  <si>
-    <t>2.2 prise en charger des nombre plus grand que 10</t>
-  </si>
-  <si>
-    <t>2.3 prise en charge des carctere speciaux</t>
-  </si>
-  <si>
-    <t>2.4 changer la valeur dans le tableau</t>
-  </si>
-  <si>
-    <t>2.5 prise en charge des tirs au meme endroit</t>
-  </si>
-  <si>
-    <t>2.6 prise en charge de bateau touche</t>
-  </si>
-  <si>
-    <t>2.7 prise en charge de beateau coule</t>
-  </si>
-  <si>
-    <t>2.8 prise en charge de la victoire</t>
-  </si>
-  <si>
-    <t>2.9 prise en charge des pseudo pour le score</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>Scénario Pour un executable</t>
   </si>
   <si>
-    <t>3.0 Prise en charge de touche aléatoire dans le menu</t>
-  </si>
-  <si>
     <t>Testeur</t>
   </si>
   <si>
@@ -105,6 +45,105 @@
   </si>
   <si>
     <t>resultat</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>Affiche le score mais pas trié ni affiché en ASCII art</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Non erreur liée a la fonction sleep</t>
+  </si>
+  <si>
+    <t>compilation sans erreurs</t>
+  </si>
+  <si>
+    <t>lancer l'application</t>
+  </si>
+  <si>
+    <t>Afficher le menu principal</t>
+  </si>
+  <si>
+    <t>Afficher le score</t>
+  </si>
+  <si>
+    <t>Quitter les scores</t>
+  </si>
+  <si>
+    <t>Afficher les règles</t>
+  </si>
+  <si>
+    <t>OK mais pas d'accents</t>
+  </si>
+  <si>
+    <t>Quitter les règles</t>
+  </si>
+  <si>
+    <t>Afficher les options</t>
+  </si>
+  <si>
+    <t>Changer le mode d'affichage(Fullscreen/windowed)</t>
+  </si>
+  <si>
+    <t>Ok mais l'affichage ASCII est illisible en windowed</t>
+  </si>
+  <si>
+    <t>Changer la couleur de l'invite de commande</t>
+  </si>
+  <si>
+    <t>Quitter les options</t>
+  </si>
+  <si>
+    <t>Prise en charge des nombre differents de ceux des choix dans le menu</t>
+  </si>
+  <si>
+    <t>Prise en charge des caratères spéciaux dans les menus</t>
+  </si>
+  <si>
+    <t>Quitter l'application</t>
+  </si>
+  <si>
+    <t>lancer une partie</t>
+  </si>
+  <si>
+    <t>Quitter vers le menu pricipal en pleine partie</t>
+  </si>
+  <si>
+    <t>Prise en charge des lettres differentes de la plage (A:J)</t>
+  </si>
+  <si>
+    <t>OK Sauf si K</t>
+  </si>
+  <si>
+    <t>Prise en charge des nombres differents de la plage(1:10(</t>
+  </si>
+  <si>
+    <t>Prise en charge des caractères spéciaux en tant que coordonées</t>
+  </si>
+  <si>
+    <t>Change la valeur dans le tableau visuel par un marqueur</t>
+  </si>
+  <si>
+    <t>Prise en charge de tirs sur la même coordonée</t>
+  </si>
+  <si>
+    <t>Détecte si un bateau est touché</t>
+  </si>
+  <si>
+    <t>Détecte si un bateau est touché coulé</t>
+  </si>
+  <si>
+    <t>Détecte les conditions de victoire</t>
+  </si>
+  <si>
+    <t>Récupere de pseudo avec le score</t>
+  </si>
+  <si>
+    <t>Prise en charge des coordonées en bloc (E3)</t>
   </si>
 </sst>
 </file>
@@ -128,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -188,50 +227,49 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -240,26 +278,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,203 +624,621 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A3FCF5-37A7-499C-B386-406526EA7D7E}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="12">
+        <v>43921</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C12" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C15" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="C16" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>2.7</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="B22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>3.1</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="19">
+        <v>43921</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="20">
+        <v>43921</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
+  <mergeCells count="7">
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Résultats.xlsx
+++ b/Résultats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babs2\Documents\GitHub\Naval-strike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDBEFDF-343A-4965-AC9F-32BABCD25115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC9FB8C-FACA-45F5-BC59-2D7EFB323888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA09CD46-4819-4640-888F-2E45EE8A1E1E}"/>
+    <workbookView xWindow="1965" yWindow="1110" windowWidth="23475" windowHeight="12525" xr2:uid="{CA09CD46-4819-4640-888F-2E45EE8A1E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="47">
   <si>
     <t>Scénario Pour un executable</t>
   </si>
@@ -144,6 +144,36 @@
   </si>
   <si>
     <t>Prise en charge des coordonées en bloc (E3)</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>OUI</t>
+  </si>
+  <si>
+    <t>OUI !orthograph serons</t>
+  </si>
+  <si>
+    <t>OUI !MAIS attention ascii art mauvaise mise en page</t>
+  </si>
+  <si>
+    <t>OUI ! Les nombres ne correspondent pas focement</t>
+  </si>
+  <si>
+    <t>EUUUH on parle de K?</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Ou sont les bateaux?</t>
+  </si>
+  <si>
+    <t>Non pas de verification</t>
+  </si>
+  <si>
+    <t>NON</t>
   </si>
 </sst>
 </file>
@@ -278,24 +308,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -305,11 +325,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A3FCF5-37A7-499C-B386-406526EA7D7E}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,566 +665,491 @@
     <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="4"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12">
-        <v>43921</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="C3" s="8">
+        <v>43921</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="7">
         <v>1.2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="C4" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>1.3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="C5" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="7">
         <v>1.4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="C6" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="7">
         <v>1.5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="C7" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="7">
         <v>1.6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="C8" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="7">
         <v>1.7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="C9" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="7">
         <v>1.8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="C10" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="7">
         <v>1.9</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="7">
         <v>2</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="9"/>
+      <c r="C12" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="7">
         <v>2.1</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="9"/>
+      <c r="C13" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="9"/>
+      <c r="C14" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="C15" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="7">
         <v>2.4</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="C16" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="7">
         <v>2.5</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="C17" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="7">
         <v>2.6</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="C18" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="7">
         <v>2.7</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="C19" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="7">
         <v>2.8</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="C20" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="7">
         <v>2.9</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="C21" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="7">
         <v>3</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="C22" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="7">
         <v>3.1</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="C23" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="7">
         <v>3.2</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="C24" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="7">
         <v>3.3</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="9"/>
+      <c r="C25" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="7">
         <v>3.4</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="9"/>
+      <c r="C26" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="7">
         <v>3.5</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="19">
-        <v>43921</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="C27" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -1204,41 +1158,476 @@
       <c r="B28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="20">
-        <v>43921</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="C28" s="15">
+        <v>43921</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="A30" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="8">
+        <v>43927</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>2</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>3</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="14">
+        <v>43927</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="15">
+        <v>43927</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
